--- a/data/trans_orig/TAM_HOG-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Habitat-trans_orig.xlsx
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 3,34</t>
+          <t>3,16; 3,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,22</t>
+          <t>3,03; 3,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,05</t>
+          <t>2,86; 3,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,58</t>
+          <t>2,37; 2,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,35</t>
+          <t>3,15; 3,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,26</t>
+          <t>3,06; 3,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,08</t>
+          <t>2,88; 3,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,76</t>
+          <t>2,58; 2,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,21</t>
+          <t>3,07; 3,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,39</t>
+          <t>3,23; 3,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 3,38</t>
+          <t>3,21; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,17</t>
+          <t>2,99; 3,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,49</t>
+          <t>2,83; 3,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 3,44</t>
+          <t>3,25; 3,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +894,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,16</t>
+          <t>2,99; 3,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 2,93</t>
+          <t>2,77; 2,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 3,39</t>
+          <t>3,27; 3,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 3,36</t>
+          <t>3,25; 3,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 3,13</t>
+          <t>3,01; 3,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,33</t>
+          <t>2,83; 3,33</t>
         </is>
       </c>
     </row>
@@ -1004,47 +1004,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,14</t>
+          <t>2,95; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,26</t>
+          <t>3,06; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>2,82; 3,02</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 2,89</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 3,24</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 3,26</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>2,83; 3,02</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,88</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,04; 3,24</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 3,27</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 3,01</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,14</t>
+          <t>2,9; 3,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 3,15</t>
+          <t>3,02; 3,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,13</t>
+          <t>2,98; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,16</t>
+          <t>3,0; 3,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,42 +1159,42 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,79</t>
+          <t>2,61; 2,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,21</t>
+          <t>3,05; 3,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,08</t>
+          <t>2,91; 3,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,82</t>
+          <t>2,66; 2,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,73</t>
+          <t>2,5; 2,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,16</t>
+          <t>3,04; 3,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,1</t>
+          <t>2,98; 3,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 2,82</t>
+          <t>2,71; 2,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 2,99</t>
+          <t>2,89; 2,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,07</t>
+          <t>2,7; 3,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,26</t>
+          <t>3,17; 3,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,83</t>
+          <t>2,73; 2,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 3,23</t>
+          <t>3,16; 3,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 2,97</t>
+          <t>2,9; 2,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
